--- a/core/results/df_others_ss50.xlsx
+++ b/core/results/df_others_ss50.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.9812</v>
+        <v>93.429</v>
       </c>
       <c r="C2" t="n">
-        <v>80.5382</v>
+        <v>81.6431</v>
       </c>
       <c r="D2" t="n">
-        <v>91.3569</v>
+        <v>92.9037</v>
       </c>
       <c r="E2" t="n">
-        <v>85.9705</v>
+        <v>87.2838</v>
       </c>
       <c r="F2" t="n">
-        <v>30.7733</v>
+        <v>35.76</v>
       </c>
       <c r="G2" t="n">
-        <v>66.6031</v>
+        <v>68.8454</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.77249999999999</v>
+        <v>91.82769999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>83.8527</v>
+        <v>83.9093</v>
       </c>
       <c r="D3" t="n">
-        <v>93.6228</v>
+        <v>93.6771</v>
       </c>
       <c r="E3" t="n">
-        <v>88.6931</v>
+        <v>88.5971</v>
       </c>
       <c r="F3" t="n">
-        <v>37.84</v>
+        <v>38.2133</v>
       </c>
       <c r="G3" t="n">
-        <v>72.4714</v>
+        <v>72.3282</v>
       </c>
     </row>
     <row r="4">
@@ -539,7 +539,7 @@
         <v>87.8283</v>
       </c>
       <c r="F4" t="n">
-        <v>34.5733</v>
+        <v>34.5867</v>
       </c>
       <c r="G4" t="n">
         <v>69.8473</v>
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.88290000000001</v>
+        <v>91.71729999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>83.2861</v>
+        <v>83.0595</v>
       </c>
       <c r="D5" t="n">
-        <v>93.45999999999999</v>
+        <v>93.4871</v>
       </c>
       <c r="E5" t="n">
-        <v>88.2127</v>
+        <v>88.1486</v>
       </c>
       <c r="F5" t="n">
-        <v>39.8667</v>
+        <v>39.5067</v>
       </c>
       <c r="G5" t="n">
-        <v>71.6126</v>
+        <v>71.4695</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.71729999999999</v>
+        <v>92.10380000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>83.9943</v>
+        <v>83.881</v>
       </c>
       <c r="D6" t="n">
-        <v>93.6092</v>
+        <v>93.6635</v>
       </c>
       <c r="E6" t="n">
-        <v>88.4049</v>
+        <v>88.4689</v>
       </c>
       <c r="F6" t="n">
-        <v>37.8667</v>
+        <v>38.2267</v>
       </c>
       <c r="G6" t="n">
-        <v>72.1374</v>
+        <v>72.18510000000001</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.55159999999999</v>
+        <v>90.5025</v>
       </c>
       <c r="C7" t="n">
-        <v>74.7025</v>
+        <v>77.1671</v>
       </c>
       <c r="D7" t="n">
-        <v>89.03660000000001</v>
+        <v>90.10850000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>84.5932</v>
+        <v>85.39400000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>28.1467</v>
+        <v>28.8933</v>
       </c>
       <c r="G7" t="n">
-        <v>63.2156</v>
+        <v>65.2672</v>
       </c>
     </row>
     <row r="8">
@@ -630,19 +630,19 @@
         <v>91.82769999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>81.2748</v>
+        <v>81.2465</v>
       </c>
       <c r="D8" t="n">
-        <v>92.70010000000001</v>
+        <v>92.673</v>
       </c>
       <c r="E8" t="n">
-        <v>87.57210000000001</v>
+        <v>87.6682</v>
       </c>
       <c r="F8" t="n">
-        <v>35.3067</v>
+        <v>35.1867</v>
       </c>
       <c r="G8" t="n">
-        <v>67.84350000000001</v>
+        <v>68.3683</v>
       </c>
     </row>
     <row r="9">

--- a/core/results/df_others_ss50.xlsx
+++ b/core/results/df_others_ss50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,200 +473,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>FedAvg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.429</v>
+        <v>91.82769999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>81.6431</v>
+        <v>83.9093</v>
       </c>
       <c r="D2" t="n">
-        <v>92.9037</v>
+        <v>93.6771</v>
       </c>
       <c r="E2" t="n">
-        <v>87.2838</v>
+        <v>88.5971</v>
       </c>
       <c r="F2" t="n">
-        <v>35.76</v>
+        <v>38.2133</v>
       </c>
       <c r="G2" t="n">
-        <v>68.8454</v>
+        <v>72.3282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FedAvg</t>
+          <t>FedProx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.82769999999999</v>
+        <v>90.8338</v>
       </c>
       <c r="C3" t="n">
-        <v>83.9093</v>
+        <v>82.9462</v>
       </c>
       <c r="D3" t="n">
-        <v>93.6771</v>
+        <v>93.3379</v>
       </c>
       <c r="E3" t="n">
-        <v>88.5971</v>
+        <v>87.8283</v>
       </c>
       <c r="F3" t="n">
-        <v>38.2133</v>
+        <v>34.5867</v>
       </c>
       <c r="G3" t="n">
-        <v>72.3282</v>
+        <v>69.8473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FedProx</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.8338</v>
+        <v>91.71729999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9462</v>
+        <v>83.0595</v>
       </c>
       <c r="D4" t="n">
-        <v>93.3379</v>
+        <v>93.4871</v>
       </c>
       <c r="E4" t="n">
-        <v>87.8283</v>
+        <v>88.1486</v>
       </c>
       <c r="F4" t="n">
-        <v>34.5867</v>
+        <v>39.5067</v>
       </c>
       <c r="G4" t="n">
-        <v>69.8473</v>
+        <v>71.4695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.71729999999999</v>
+        <v>92.10380000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>83.0595</v>
+        <v>83.881</v>
       </c>
       <c r="D5" t="n">
-        <v>93.4871</v>
+        <v>93.6635</v>
       </c>
       <c r="E5" t="n">
-        <v>88.1486</v>
+        <v>88.4689</v>
       </c>
       <c r="F5" t="n">
-        <v>39.5067</v>
+        <v>38.2267</v>
       </c>
       <c r="G5" t="n">
-        <v>71.4695</v>
+        <v>72.18510000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>FedProto</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.10380000000001</v>
+        <v>90.5025</v>
       </c>
       <c r="C6" t="n">
-        <v>83.881</v>
+        <v>77.1671</v>
       </c>
       <c r="D6" t="n">
-        <v>93.6635</v>
+        <v>90.10850000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>88.4689</v>
+        <v>85.39400000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>38.2267</v>
+        <v>28.8933</v>
       </c>
       <c r="G6" t="n">
-        <v>72.18510000000001</v>
+        <v>65.2672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FedProto</t>
+          <t>DBE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.5025</v>
+        <v>91.82769999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>77.1671</v>
+        <v>81.2465</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10850000000001</v>
+        <v>92.673</v>
       </c>
       <c r="E7" t="n">
-        <v>85.39400000000001</v>
+        <v>87.6682</v>
       </c>
       <c r="F7" t="n">
-        <v>28.8933</v>
+        <v>35.1867</v>
       </c>
       <c r="G7" t="n">
-        <v>65.2672</v>
+        <v>68.3683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DBE</t>
+          <t>MPFT (average)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.82769999999999</v>
+        <v>90.2264</v>
       </c>
       <c r="C8" t="n">
-        <v>81.2465</v>
+        <v>82.7479</v>
       </c>
       <c r="D8" t="n">
-        <v>92.673</v>
+        <v>92.6459</v>
       </c>
       <c r="E8" t="n">
-        <v>87.6682</v>
+        <v>87.3479</v>
       </c>
       <c r="F8" t="n">
-        <v>35.1867</v>
+        <v>56.4933</v>
       </c>
       <c r="G8" t="n">
-        <v>68.3683</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MPFT (average)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>90.2264</v>
-      </c>
-      <c r="C9" t="n">
-        <v>82.7479</v>
-      </c>
-      <c r="D9" t="n">
-        <v>92.6459</v>
-      </c>
-      <c r="E9" t="n">
-        <v>87.3479</v>
-      </c>
-      <c r="F9" t="n">
-        <v>56.4933</v>
-      </c>
-      <c r="G9" t="n">
         <v>72.51909999999999</v>
       </c>
     </row>
